--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -1669,10 +1669,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111469951</v>
+        <v>111469966</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1681,38 +1681,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554679.0891228422</v>
+        <v>554729.2459973614</v>
       </c>
       <c r="R10" t="n">
-        <v>6697970.425878088</v>
+        <v>6698057.144588907</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1763,6 +1772,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1781,10 +1791,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111469929</v>
+        <v>111469953</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1793,46 +1803,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554646.3468513897</v>
+        <v>554668.8331894471</v>
       </c>
       <c r="R11" t="n">
-        <v>6697975.861129273</v>
+        <v>6698027.085862564</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1901,10 +1903,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111469968</v>
+        <v>111469944</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1913,47 +1915,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554679.218646974</v>
+        <v>554647.0313377964</v>
       </c>
       <c r="R12" t="n">
-        <v>6698060.342582431</v>
+        <v>6697996.127116338</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -2004,7 +1997,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2145,7 +2137,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111469964</v>
+        <v>111469967</v>
       </c>
       <c r="B14" t="n">
         <v>5113</v>
@@ -2184,7 +2176,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N14" t="inlineStr"/>
@@ -2194,10 +2186,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554731.9372321201</v>
+        <v>554705.6319759471</v>
       </c>
       <c r="R14" t="n">
-        <v>6698141.169601779</v>
+        <v>6698113.601669285</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2267,7 +2259,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111469953</v>
+        <v>111469947</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2307,10 +2299,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554668.8331894471</v>
+        <v>554660.8096201464</v>
       </c>
       <c r="R15" t="n">
-        <v>6698027.085862564</v>
+        <v>6698001.275046931</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2379,10 +2371,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111469958</v>
+        <v>111469965</v>
       </c>
       <c r="B16" t="n">
-        <v>89621</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2391,38 +2383,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1101</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554681.1975678616</v>
+        <v>554716.1509068209</v>
       </c>
       <c r="R16" t="n">
-        <v>6698060.372405332</v>
+        <v>6698137.967376946</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2473,6 +2474,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2491,10 +2493,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111469950</v>
+        <v>111469926</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2503,25 +2505,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2531,10 +2533,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554648.2514272946</v>
+        <v>554745.7538377594</v>
       </c>
       <c r="R17" t="n">
-        <v>6697980.830233379</v>
+        <v>6698078.142900295</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2603,10 +2605,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111469922</v>
+        <v>111469954</v>
       </c>
       <c r="B18" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2615,47 +2617,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554716.6256586342</v>
+        <v>554709.4759112563</v>
       </c>
       <c r="R18" t="n">
-        <v>6698008.044787553</v>
+        <v>6698022.75809369</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2706,7 +2699,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2725,7 +2717,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111469947</v>
+        <v>111469941</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2759,16 +2751,24 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554660.8096201464</v>
+        <v>554704.8063610581</v>
       </c>
       <c r="R19" t="n">
-        <v>6698001.275046931</v>
+        <v>6698102.720679003</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2819,6 +2819,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2837,7 +2838,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111469966</v>
+        <v>111469962</v>
       </c>
       <c r="B20" t="n">
         <v>5113</v>
@@ -2876,7 +2877,7 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2886,10 +2887,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554729.2459973614</v>
+        <v>554640.2091243146</v>
       </c>
       <c r="R20" t="n">
-        <v>6698057.144588907</v>
+        <v>6697989.107814683</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2959,7 +2960,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111469952</v>
+        <v>111469950</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2999,10 +3000,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554701.1291447466</v>
+        <v>554648.2514272946</v>
       </c>
       <c r="R21" t="n">
-        <v>6697985.57934437</v>
+        <v>6697980.830233379</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3183,10 +3184,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111469962</v>
+        <v>111469951</v>
       </c>
       <c r="B23" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3195,47 +3196,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554640.2091243146</v>
+        <v>554679.0891228422</v>
       </c>
       <c r="R23" t="n">
-        <v>6697989.107814683</v>
+        <v>6697970.425878088</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3286,7 +3278,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3305,10 +3296,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111469944</v>
+        <v>111469958</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89621</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3317,25 +3308,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>1101</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3345,10 +3336,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554647.0313377964</v>
+        <v>554681.1975678616</v>
       </c>
       <c r="R24" t="n">
-        <v>6697996.127116338</v>
+        <v>6698060.372405332</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3417,10 +3408,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111469946</v>
+        <v>111469968</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3429,38 +3420,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554664.6782300239</v>
+        <v>554679.218646974</v>
       </c>
       <c r="R25" t="n">
-        <v>6698007.261790544</v>
+        <v>6698060.342582431</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3511,6 +3511,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3529,10 +3530,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111469941</v>
+        <v>111469929</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3541,35 +3542,35 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3577,10 +3578,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554704.8063610581</v>
+        <v>554646.3468513897</v>
       </c>
       <c r="R26" t="n">
-        <v>6698102.720679003</v>
+        <v>6697975.861129273</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3631,7 +3632,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3650,10 +3650,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111469965</v>
+        <v>111469946</v>
       </c>
       <c r="B27" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3662,47 +3662,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554716.1509068209</v>
+        <v>554664.6782300239</v>
       </c>
       <c r="R27" t="n">
-        <v>6698137.967376946</v>
+        <v>6698007.261790544</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3753,7 +3744,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3772,7 +3762,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111469954</v>
+        <v>111469952</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3812,10 +3802,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554709.4759112563</v>
+        <v>554701.1291447466</v>
       </c>
       <c r="R28" t="n">
-        <v>6698022.75809369</v>
+        <v>6697985.57934437</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3884,10 +3874,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111469967</v>
+        <v>111469922</v>
       </c>
       <c r="B29" t="n">
-        <v>5113</v>
+        <v>5135</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3900,21 +3890,21 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3933,10 +3923,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554705.6319759471</v>
+        <v>554716.6256586342</v>
       </c>
       <c r="R29" t="n">
-        <v>6698113.601669285</v>
+        <v>6698008.044787553</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -4006,10 +3996,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111469926</v>
+        <v>111469964</v>
       </c>
       <c r="B30" t="n">
-        <v>89369</v>
+        <v>5113</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4022,34 +4012,43 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554745.7538377594</v>
+        <v>554731.9372321201</v>
       </c>
       <c r="R30" t="n">
-        <v>6698078.142900295</v>
+        <v>6698141.169601779</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4100,6 +4099,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111469969</v>
+        <v>111469940</v>
       </c>
       <c r="B31" t="n">
-        <v>76495</v>
+        <v>79444</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4134,21 +4134,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6487</v>
+        <v>1049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>554769.2275642991</v>
+        <v>554771.1915359092</v>
       </c>
       <c r="R31" t="n">
-        <v>6698129.381786803</v>
+        <v>6698130.399477887</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4212,7 +4212,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4231,10 +4230,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111469940</v>
+        <v>111469969</v>
       </c>
       <c r="B32" t="n">
-        <v>79444</v>
+        <v>76495</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4247,21 +4246,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1049</v>
+        <v>6487</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4271,10 +4270,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>554771.1915359092</v>
+        <v>554769.2275642991</v>
       </c>
       <c r="R32" t="n">
-        <v>6698130.399477887</v>
+        <v>6698129.381786803</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4325,6 +4324,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -1669,10 +1669,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111469966</v>
+        <v>111469941</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1681,36 +1681,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1718,10 +1717,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554729.2459973614</v>
+        <v>554704.8063610581</v>
       </c>
       <c r="R10" t="n">
-        <v>6698057.144588907</v>
+        <v>6698102.720679003</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1791,7 +1790,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111469953</v>
+        <v>111469951</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1831,10 +1830,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554668.8331894471</v>
+        <v>554679.0891228422</v>
       </c>
       <c r="R11" t="n">
-        <v>6698027.085862564</v>
+        <v>6697970.425878088</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1903,10 +1902,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111469944</v>
+        <v>111469967</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1915,38 +1914,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554647.0313377964</v>
+        <v>554705.6319759471</v>
       </c>
       <c r="R12" t="n">
-        <v>6697996.127116338</v>
+        <v>6698113.601669285</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1997,6 +2005,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2015,10 +2024,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111469963</v>
+        <v>111469953</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2027,47 +2036,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554718.6790950731</v>
+        <v>554668.8331894471</v>
       </c>
       <c r="R13" t="n">
-        <v>6698003.135367867</v>
+        <v>6698027.085862564</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2118,7 +2118,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2137,10 +2136,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111469967</v>
+        <v>111469958</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>89621</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2149,47 +2148,38 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>1101</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554705.6319759471</v>
+        <v>554681.1975678616</v>
       </c>
       <c r="R14" t="n">
-        <v>6698113.601669285</v>
+        <v>6698060.372405332</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2240,7 +2230,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2259,10 +2248,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111469947</v>
+        <v>111469966</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2271,38 +2260,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554660.8096201464</v>
+        <v>554729.2459973614</v>
       </c>
       <c r="R15" t="n">
-        <v>6698001.275046931</v>
+        <v>6698057.144588907</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2353,6 +2351,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2371,7 +2370,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111469965</v>
+        <v>111469964</v>
       </c>
       <c r="B16" t="n">
         <v>5113</v>
@@ -2420,10 +2419,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554716.1509068209</v>
+        <v>554731.9372321201</v>
       </c>
       <c r="R16" t="n">
-        <v>6698137.967376946</v>
+        <v>6698141.169601779</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2493,10 +2492,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111469926</v>
+        <v>111469968</v>
       </c>
       <c r="B17" t="n">
-        <v>89369</v>
+        <v>5113</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2509,34 +2508,43 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554745.7538377594</v>
+        <v>554679.218646974</v>
       </c>
       <c r="R17" t="n">
-        <v>6698078.142900295</v>
+        <v>6698060.342582431</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2587,6 +2595,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2605,10 +2614,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111469954</v>
+        <v>111469963</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2617,38 +2626,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554709.4759112563</v>
+        <v>554718.6790950731</v>
       </c>
       <c r="R18" t="n">
-        <v>6698022.75809369</v>
+        <v>6698003.135367867</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2699,6 +2717,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2717,7 +2736,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111469941</v>
+        <v>111469949</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2751,24 +2770,16 @@
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554704.8063610581</v>
+        <v>554654.1362404823</v>
       </c>
       <c r="R19" t="n">
-        <v>6698102.720679003</v>
+        <v>6697984.37715952</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2819,7 +2830,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2838,10 +2848,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111469962</v>
+        <v>111469929</v>
       </c>
       <c r="B20" t="n">
-        <v>5113</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2850,34 +2860,33 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100526</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N20" t="inlineStr"/>
@@ -2887,10 +2896,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554640.2091243146</v>
+        <v>554646.3468513897</v>
       </c>
       <c r="R20" t="n">
-        <v>6697989.107814683</v>
+        <v>6697975.861129273</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2941,7 +2950,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2960,10 +2968,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111469950</v>
+        <v>111469965</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2972,38 +2980,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554648.2514272946</v>
+        <v>554716.1509068209</v>
       </c>
       <c r="R21" t="n">
-        <v>6697980.830233379</v>
+        <v>6698137.967376946</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3054,6 +3071,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3072,10 +3090,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111469949</v>
+        <v>111469926</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3084,25 +3102,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3112,10 +3130,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554654.1362404823</v>
+        <v>554745.7538377594</v>
       </c>
       <c r="R22" t="n">
-        <v>6697984.37715952</v>
+        <v>6698078.142900295</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3184,7 +3202,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111469951</v>
+        <v>111469950</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3224,10 +3242,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554679.0891228422</v>
+        <v>554648.2514272946</v>
       </c>
       <c r="R23" t="n">
-        <v>6697970.425878088</v>
+        <v>6697980.830233379</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3296,10 +3314,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111469958</v>
+        <v>111469946</v>
       </c>
       <c r="B24" t="n">
-        <v>89621</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3308,25 +3326,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1101</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3336,10 +3354,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554681.1975678616</v>
+        <v>554664.6782300239</v>
       </c>
       <c r="R24" t="n">
-        <v>6698060.372405332</v>
+        <v>6698007.261790544</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3408,10 +3426,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111469968</v>
+        <v>111469952</v>
       </c>
       <c r="B25" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3420,47 +3438,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554679.218646974</v>
+        <v>554701.1291447466</v>
       </c>
       <c r="R25" t="n">
-        <v>6698060.342582431</v>
+        <v>6697985.57934437</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3511,7 +3520,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3530,10 +3538,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111469929</v>
+        <v>111469954</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3542,46 +3550,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554646.3468513897</v>
+        <v>554709.4759112563</v>
       </c>
       <c r="R26" t="n">
-        <v>6697975.861129273</v>
+        <v>6698022.75809369</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3650,7 +3650,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111469946</v>
+        <v>111469944</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3690,10 +3690,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554664.6782300239</v>
+        <v>554647.0313377964</v>
       </c>
       <c r="R27" t="n">
-        <v>6698007.261790544</v>
+        <v>6697996.127116338</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111469952</v>
+        <v>111469922</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3774,38 +3774,47 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554701.1291447466</v>
+        <v>554716.6256586342</v>
       </c>
       <c r="R28" t="n">
-        <v>6697985.57934437</v>
+        <v>6698008.044787553</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3856,6 +3865,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3874,10 +3884,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111469922</v>
+        <v>111469947</v>
       </c>
       <c r="B29" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3886,47 +3896,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554716.6256586342</v>
+        <v>554660.8096201464</v>
       </c>
       <c r="R29" t="n">
-        <v>6698008.044787553</v>
+        <v>6698001.275046931</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3977,7 +3978,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111469964</v>
+        <v>111469962</v>
       </c>
       <c r="B30" t="n">
         <v>5113</v>
@@ -4045,10 +4045,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554731.9372321201</v>
+        <v>554640.2091243146</v>
       </c>
       <c r="R30" t="n">
-        <v>6698141.169601779</v>
+        <v>6697989.107814683</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>

--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -1669,7 +1669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111469941</v>
+        <v>111469947</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1703,24 +1703,16 @@
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554704.8063610581</v>
+        <v>554660.8096201464</v>
       </c>
       <c r="R10" t="n">
-        <v>6698102.720679003</v>
+        <v>6698001.275046931</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1771,7 +1763,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1790,10 +1781,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111469951</v>
+        <v>111469963</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1802,38 +1793,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554679.0891228422</v>
+        <v>554718.6790950731</v>
       </c>
       <c r="R11" t="n">
-        <v>6697970.425878088</v>
+        <v>6698003.135367867</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1884,6 +1884,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1902,7 +1903,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111469967</v>
+        <v>111469964</v>
       </c>
       <c r="B12" t="n">
         <v>5113</v>
@@ -1941,7 +1942,7 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N12" t="inlineStr"/>
@@ -1951,10 +1952,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554705.6319759471</v>
+        <v>554731.9372321201</v>
       </c>
       <c r="R12" t="n">
-        <v>6698113.601669285</v>
+        <v>6698141.169601779</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -2024,7 +2025,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111469953</v>
+        <v>111469949</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2064,10 +2065,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554668.8331894471</v>
+        <v>554654.1362404823</v>
       </c>
       <c r="R13" t="n">
-        <v>6698027.085862564</v>
+        <v>6697984.37715952</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2136,10 +2137,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111469958</v>
+        <v>111469965</v>
       </c>
       <c r="B14" t="n">
-        <v>89621</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2148,38 +2149,47 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1101</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554681.1975678616</v>
+        <v>554716.1509068209</v>
       </c>
       <c r="R14" t="n">
-        <v>6698060.372405332</v>
+        <v>6698137.967376946</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2230,6 +2240,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2248,10 +2259,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111469966</v>
+        <v>111469922</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>5135</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2264,21 +2275,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2297,10 +2308,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554729.2459973614</v>
+        <v>554716.6256586342</v>
       </c>
       <c r="R15" t="n">
-        <v>6698057.144588907</v>
+        <v>6698008.044787553</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2370,10 +2381,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111469964</v>
+        <v>111469953</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2382,47 +2393,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554731.9372321201</v>
+        <v>554668.8331894471</v>
       </c>
       <c r="R16" t="n">
-        <v>6698141.169601779</v>
+        <v>6698027.085862564</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2473,7 +2475,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2492,10 +2493,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111469968</v>
+        <v>111469954</v>
       </c>
       <c r="B17" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2504,47 +2505,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554679.218646974</v>
+        <v>554709.4759112563</v>
       </c>
       <c r="R17" t="n">
-        <v>6698060.342582431</v>
+        <v>6698022.75809369</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2595,7 +2587,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2614,10 +2605,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111469963</v>
+        <v>111469958</v>
       </c>
       <c r="B18" t="n">
-        <v>5113</v>
+        <v>89621</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2626,47 +2617,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100526</v>
+        <v>1101</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554718.6790950731</v>
+        <v>554681.1975678616</v>
       </c>
       <c r="R18" t="n">
-        <v>6698003.135367867</v>
+        <v>6698060.372405332</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2717,7 +2699,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2736,7 +2717,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111469949</v>
+        <v>111469950</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2776,10 +2757,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554654.1362404823</v>
+        <v>554648.2514272946</v>
       </c>
       <c r="R19" t="n">
-        <v>6697984.37715952</v>
+        <v>6697980.830233379</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2968,10 +2949,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111469965</v>
+        <v>111469941</v>
       </c>
       <c r="B21" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2980,36 +2961,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3017,10 +2997,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554716.1509068209</v>
+        <v>554704.8063610581</v>
       </c>
       <c r="R21" t="n">
-        <v>6698137.967376946</v>
+        <v>6698102.720679003</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3090,10 +3070,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111469926</v>
+        <v>111469962</v>
       </c>
       <c r="B22" t="n">
-        <v>89369</v>
+        <v>5113</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3106,34 +3086,43 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554745.7538377594</v>
+        <v>554640.2091243146</v>
       </c>
       <c r="R22" t="n">
-        <v>6698078.142900295</v>
+        <v>6697989.107814683</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3184,6 +3173,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3202,7 +3192,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111469950</v>
+        <v>111469952</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3242,10 +3232,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554648.2514272946</v>
+        <v>554701.1291447466</v>
       </c>
       <c r="R23" t="n">
-        <v>6697980.830233379</v>
+        <v>6697985.57934437</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3314,10 +3304,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111469946</v>
+        <v>111469926</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3326,25 +3316,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3354,10 +3344,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554664.6782300239</v>
+        <v>554745.7538377594</v>
       </c>
       <c r="R24" t="n">
-        <v>6698007.261790544</v>
+        <v>6698078.142900295</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3426,7 +3416,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111469952</v>
+        <v>111469951</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3466,10 +3456,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554701.1291447466</v>
+        <v>554679.0891228422</v>
       </c>
       <c r="R25" t="n">
-        <v>6697985.57934437</v>
+        <v>6697970.425878088</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3538,10 +3528,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111469954</v>
+        <v>111469968</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3550,38 +3540,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554709.4759112563</v>
+        <v>554679.218646974</v>
       </c>
       <c r="R26" t="n">
-        <v>6698022.75809369</v>
+        <v>6698060.342582431</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3632,6 +3631,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111469922</v>
+        <v>111469966</v>
       </c>
       <c r="B28" t="n">
-        <v>5135</v>
+        <v>5113</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3778,21 +3778,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>105930</v>
+        <v>100526</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3811,10 +3811,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554716.6256586342</v>
+        <v>554729.2459973614</v>
       </c>
       <c r="R28" t="n">
-        <v>6698008.044787553</v>
+        <v>6698057.144588907</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3884,10 +3884,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111469947</v>
+        <v>111469967</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3896,38 +3896,47 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554660.8096201464</v>
+        <v>554705.6319759471</v>
       </c>
       <c r="R29" t="n">
-        <v>6698001.275046931</v>
+        <v>6698113.601669285</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3978,6 +3987,7 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -3996,10 +4006,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111469962</v>
+        <v>111469946</v>
       </c>
       <c r="B30" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4008,47 +4018,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554640.2091243146</v>
+        <v>554664.6782300239</v>
       </c>
       <c r="R30" t="n">
-        <v>6697989.107814683</v>
+        <v>6698007.261790544</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4099,7 +4100,6 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
-      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111469940</v>
+        <v>111469969</v>
       </c>
       <c r="B31" t="n">
-        <v>79444</v>
+        <v>76495</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4134,21 +4134,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1049</v>
+        <v>6487</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>554771.1915359092</v>
+        <v>554769.2275642991</v>
       </c>
       <c r="R31" t="n">
-        <v>6698130.399477887</v>
+        <v>6698129.381786803</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4212,6 +4212,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4230,10 +4231,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111469969</v>
+        <v>111469940</v>
       </c>
       <c r="B32" t="n">
-        <v>76495</v>
+        <v>79444</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4246,21 +4247,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6487</v>
+        <v>1049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4270,10 +4271,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>554769.2275642991</v>
+        <v>554771.1915359092</v>
       </c>
       <c r="R32" t="n">
-        <v>6698129.381786803</v>
+        <v>6698130.399477887</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4324,7 +4325,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -1669,7 +1669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111469947</v>
+        <v>111469944</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554660.8096201464</v>
+        <v>554647.0313377964</v>
       </c>
       <c r="R10" t="n">
-        <v>6698001.275046931</v>
+        <v>6697996.127116338</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1781,10 +1781,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111469963</v>
+        <v>111469949</v>
       </c>
       <c r="B11" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1793,47 +1793,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554718.6790950731</v>
+        <v>554654.1362404823</v>
       </c>
       <c r="R11" t="n">
-        <v>6698003.135367867</v>
+        <v>6697984.37715952</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1884,7 +1875,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1903,7 +1893,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111469964</v>
+        <v>111469963</v>
       </c>
       <c r="B12" t="n">
         <v>5113</v>
@@ -1952,10 +1942,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554731.9372321201</v>
+        <v>554718.6790950731</v>
       </c>
       <c r="R12" t="n">
-        <v>6698141.169601779</v>
+        <v>6698003.135367867</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -2025,7 +2015,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111469949</v>
+        <v>111469951</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2065,10 +2055,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554654.1362404823</v>
+        <v>554679.0891228422</v>
       </c>
       <c r="R13" t="n">
-        <v>6697984.37715952</v>
+        <v>6697970.425878088</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2137,10 +2127,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111469965</v>
+        <v>111469926</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2153,43 +2143,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554716.1509068209</v>
+        <v>554745.7538377594</v>
       </c>
       <c r="R14" t="n">
-        <v>6698137.967376946</v>
+        <v>6698078.142900295</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2240,7 +2221,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2259,10 +2239,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111469922</v>
+        <v>111469947</v>
       </c>
       <c r="B15" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2271,47 +2251,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554716.6256586342</v>
+        <v>554660.8096201464</v>
       </c>
       <c r="R15" t="n">
-        <v>6698008.044787553</v>
+        <v>6698001.275046931</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2362,7 +2333,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2493,10 +2463,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111469954</v>
+        <v>111469962</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2505,38 +2475,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554709.4759112563</v>
+        <v>554640.2091243146</v>
       </c>
       <c r="R17" t="n">
-        <v>6698022.75809369</v>
+        <v>6697989.107814683</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2587,6 +2566,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2605,10 +2585,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111469958</v>
+        <v>111469964</v>
       </c>
       <c r="B18" t="n">
-        <v>89621</v>
+        <v>5113</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2617,38 +2597,47 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1101</v>
+        <v>100526</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554681.1975678616</v>
+        <v>554731.9372321201</v>
       </c>
       <c r="R18" t="n">
-        <v>6698060.372405332</v>
+        <v>6698141.169601779</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2699,6 +2688,7 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2717,10 +2707,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111469950</v>
+        <v>111469922</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2729,38 +2719,47 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554648.2514272946</v>
+        <v>554716.6256586342</v>
       </c>
       <c r="R19" t="n">
-        <v>6697980.830233379</v>
+        <v>6698008.044787553</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2811,6 +2810,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2829,10 +2829,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111469929</v>
+        <v>111469946</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2841,46 +2841,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554646.3468513897</v>
+        <v>554664.6782300239</v>
       </c>
       <c r="R20" t="n">
-        <v>6697975.861129273</v>
+        <v>6698007.261790544</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2949,10 +2941,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111469941</v>
+        <v>111469965</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2961,35 +2953,36 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2997,10 +2990,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554704.8063610581</v>
+        <v>554716.1509068209</v>
       </c>
       <c r="R21" t="n">
-        <v>6698102.720679003</v>
+        <v>6698137.967376946</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3070,7 +3063,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111469962</v>
+        <v>111469968</v>
       </c>
       <c r="B22" t="n">
         <v>5113</v>
@@ -3109,7 +3102,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -3119,10 +3112,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554640.2091243146</v>
+        <v>554679.218646974</v>
       </c>
       <c r="R22" t="n">
-        <v>6697989.107814683</v>
+        <v>6698060.342582431</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3192,7 +3185,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111469952</v>
+        <v>111469941</v>
       </c>
       <c r="B23" t="n">
         <v>96348</v>
@@ -3226,16 +3219,24 @@
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554701.1291447466</v>
+        <v>554704.8063610581</v>
       </c>
       <c r="R23" t="n">
-        <v>6697985.57934437</v>
+        <v>6698102.720679003</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3286,6 +3287,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3304,10 +3306,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111469926</v>
+        <v>111469954</v>
       </c>
       <c r="B24" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3316,25 +3318,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3344,10 +3346,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554745.7538377594</v>
+        <v>554709.4759112563</v>
       </c>
       <c r="R24" t="n">
-        <v>6698078.142900295</v>
+        <v>6698022.75809369</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3416,10 +3418,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111469951</v>
+        <v>111469967</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3428,38 +3430,47 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554679.0891228422</v>
+        <v>554705.6319759471</v>
       </c>
       <c r="R25" t="n">
-        <v>6697970.425878088</v>
+        <v>6698113.601669285</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3510,6 +3521,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3528,10 +3540,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111469968</v>
+        <v>111469958</v>
       </c>
       <c r="B26" t="n">
-        <v>5113</v>
+        <v>89621</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3540,47 +3552,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100526</v>
+        <v>1101</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554679.218646974</v>
+        <v>554681.1975678616</v>
       </c>
       <c r="R26" t="n">
-        <v>6698060.342582431</v>
+        <v>6698060.372405332</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3631,7 +3634,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3650,7 +3652,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111469944</v>
+        <v>111469950</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3690,10 +3692,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554647.0313377964</v>
+        <v>554648.2514272946</v>
       </c>
       <c r="R27" t="n">
-        <v>6697996.127116338</v>
+        <v>6697980.830233379</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3884,10 +3886,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111469967</v>
+        <v>111469952</v>
       </c>
       <c r="B29" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3896,47 +3898,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554705.6319759471</v>
+        <v>554701.1291447466</v>
       </c>
       <c r="R29" t="n">
-        <v>6698113.601669285</v>
+        <v>6697985.57934437</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3987,7 +3980,6 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
       </c>
@@ -4006,10 +3998,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111469946</v>
+        <v>111469929</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4018,38 +4010,46 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554664.6782300239</v>
+        <v>554646.3468513897</v>
       </c>
       <c r="R30" t="n">
-        <v>6698007.261790544</v>
+        <v>6697975.861129273</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>

--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -1669,7 +1669,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111469944</v>
+        <v>111469947</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1709,10 +1709,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554647.0313377964</v>
+        <v>554660.8096201464</v>
       </c>
       <c r="R10" t="n">
-        <v>6697996.127116338</v>
+        <v>6698001.275046931</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111469949</v>
+        <v>111469944</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1821,10 +1821,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554654.1362404823</v>
+        <v>554647.0313377964</v>
       </c>
       <c r="R11" t="n">
-        <v>6697984.37715952</v>
+        <v>6697996.127116338</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1893,10 +1893,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111469963</v>
+        <v>111469950</v>
       </c>
       <c r="B12" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1905,47 +1905,38 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554718.6790950731</v>
+        <v>554648.2514272946</v>
       </c>
       <c r="R12" t="n">
-        <v>6698003.135367867</v>
+        <v>6697980.830233379</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1996,7 +1987,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2015,10 +2005,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111469951</v>
+        <v>111469967</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2027,38 +2017,47 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554679.0891228422</v>
+        <v>554705.6319759471</v>
       </c>
       <c r="R13" t="n">
-        <v>6697970.425878088</v>
+        <v>6698113.601669285</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2109,6 +2108,7 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2127,10 +2127,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111469926</v>
+        <v>111469949</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2139,25 +2139,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554745.7538377594</v>
+        <v>554654.1362404823</v>
       </c>
       <c r="R14" t="n">
-        <v>6698078.142900295</v>
+        <v>6697984.37715952</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2239,10 +2239,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111469947</v>
+        <v>111469964</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2251,38 +2251,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554660.8096201464</v>
+        <v>554731.9372321201</v>
       </c>
       <c r="R15" t="n">
-        <v>6698001.275046931</v>
+        <v>6698141.169601779</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2333,6 +2342,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2351,10 +2361,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111469953</v>
+        <v>111469929</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2363,38 +2373,46 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554668.8331894471</v>
+        <v>554646.3468513897</v>
       </c>
       <c r="R16" t="n">
-        <v>6698027.085862564</v>
+        <v>6697975.861129273</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2463,10 +2481,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111469962</v>
+        <v>111469954</v>
       </c>
       <c r="B17" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2475,47 +2493,38 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554640.2091243146</v>
+        <v>554709.4759112563</v>
       </c>
       <c r="R17" t="n">
-        <v>6697989.107814683</v>
+        <v>6698022.75809369</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2566,7 +2575,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2585,7 +2593,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111469964</v>
+        <v>111469963</v>
       </c>
       <c r="B18" t="n">
         <v>5113</v>
@@ -2634,10 +2642,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554731.9372321201</v>
+        <v>554718.6790950731</v>
       </c>
       <c r="R18" t="n">
-        <v>6698141.169601779</v>
+        <v>6698003.135367867</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2707,10 +2715,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111469922</v>
+        <v>111469968</v>
       </c>
       <c r="B19" t="n">
-        <v>5135</v>
+        <v>5113</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2723,21 +2731,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>105930</v>
+        <v>100526</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2756,10 +2764,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554716.6256586342</v>
+        <v>554679.218646974</v>
       </c>
       <c r="R19" t="n">
-        <v>6698008.044787553</v>
+        <v>6698060.342582431</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2829,10 +2837,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111469946</v>
+        <v>111469962</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2841,38 +2849,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554664.6782300239</v>
+        <v>554640.2091243146</v>
       </c>
       <c r="R20" t="n">
-        <v>6698007.261790544</v>
+        <v>6697989.107814683</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2923,6 +2940,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2941,10 +2959,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111469965</v>
+        <v>111469958</v>
       </c>
       <c r="B21" t="n">
-        <v>5113</v>
+        <v>89621</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2953,47 +2971,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>1101</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554716.1509068209</v>
+        <v>554681.1975678616</v>
       </c>
       <c r="R21" t="n">
-        <v>6698137.967376946</v>
+        <v>6698060.372405332</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3044,7 +3053,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3063,10 +3071,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111469968</v>
+        <v>111469941</v>
       </c>
       <c r="B22" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3075,36 +3083,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3112,10 +3119,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554679.218646974</v>
+        <v>554704.8063610581</v>
       </c>
       <c r="R22" t="n">
-        <v>6698060.342582431</v>
+        <v>6698102.720679003</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3185,10 +3192,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111469941</v>
+        <v>111469926</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3197,46 +3204,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554704.8063610581</v>
+        <v>554745.7538377594</v>
       </c>
       <c r="R23" t="n">
-        <v>6698102.720679003</v>
+        <v>6698078.142900295</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3287,7 +3286,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3306,7 +3304,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111469954</v>
+        <v>111469952</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3346,10 +3344,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554709.4759112563</v>
+        <v>554701.1291447466</v>
       </c>
       <c r="R24" t="n">
-        <v>6698022.75809369</v>
+        <v>6697985.57934437</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3418,10 +3416,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111469967</v>
+        <v>111469953</v>
       </c>
       <c r="B25" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3430,47 +3428,38 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554705.6319759471</v>
+        <v>554668.8331894471</v>
       </c>
       <c r="R25" t="n">
-        <v>6698113.601669285</v>
+        <v>6698027.085862564</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3521,7 +3510,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3540,10 +3528,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111469958</v>
+        <v>111469966</v>
       </c>
       <c r="B26" t="n">
-        <v>89621</v>
+        <v>5113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3552,38 +3540,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1101</v>
+        <v>100526</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554681.1975678616</v>
+        <v>554729.2459973614</v>
       </c>
       <c r="R26" t="n">
-        <v>6698060.372405332</v>
+        <v>6698057.144588907</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3634,6 +3631,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3652,10 +3650,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111469950</v>
+        <v>111469965</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3664,38 +3662,47 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554648.2514272946</v>
+        <v>554716.1509068209</v>
       </c>
       <c r="R27" t="n">
-        <v>6697980.830233379</v>
+        <v>6698137.967376946</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3746,6 +3753,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3764,10 +3772,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111469966</v>
+        <v>111469922</v>
       </c>
       <c r="B28" t="n">
-        <v>5113</v>
+        <v>5135</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3780,21 +3788,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3813,10 +3821,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554729.2459973614</v>
+        <v>554716.6256586342</v>
       </c>
       <c r="R28" t="n">
-        <v>6698057.144588907</v>
+        <v>6698008.044787553</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3886,7 +3894,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111469952</v>
+        <v>111469951</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3926,10 +3934,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554701.1291447466</v>
+        <v>554679.0891228422</v>
       </c>
       <c r="R29" t="n">
-        <v>6697985.57934437</v>
+        <v>6697970.425878088</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3998,10 +4006,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111469929</v>
+        <v>111469946</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4010,46 +4018,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554646.3468513897</v>
+        <v>554664.6782300239</v>
       </c>
       <c r="R30" t="n">
-        <v>6697975.861129273</v>
+        <v>6698007.261790544</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111469969</v>
+        <v>111469940</v>
       </c>
       <c r="B31" t="n">
-        <v>76495</v>
+        <v>79444</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4134,21 +4134,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6487</v>
+        <v>1049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>554769.2275642991</v>
+        <v>554771.1915359092</v>
       </c>
       <c r="R31" t="n">
-        <v>6698129.381786803</v>
+        <v>6698130.399477887</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4212,7 +4212,6 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4231,10 +4230,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111469940</v>
+        <v>111469969</v>
       </c>
       <c r="B32" t="n">
-        <v>79444</v>
+        <v>76495</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4247,21 +4246,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1049</v>
+        <v>6487</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4271,10 +4270,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>554771.1915359092</v>
+        <v>554769.2275642991</v>
       </c>
       <c r="R32" t="n">
-        <v>6698130.399477887</v>
+        <v>6698129.381786803</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4325,6 +4324,7 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
+      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -1669,10 +1669,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111469947</v>
+        <v>111469967</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1681,38 +1681,47 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554660.8096201464</v>
+        <v>554705.6319759471</v>
       </c>
       <c r="R10" t="n">
-        <v>6698001.275046931</v>
+        <v>6698113.601669285</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1763,6 +1772,7 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1781,10 +1791,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111469944</v>
+        <v>111469965</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1793,38 +1803,47 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554647.0313377964</v>
+        <v>554716.1509068209</v>
       </c>
       <c r="R11" t="n">
-        <v>6697996.127116338</v>
+        <v>6698137.967376946</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1875,6 +1894,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1893,10 +1913,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111469950</v>
+        <v>111469966</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1905,38 +1925,47 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554648.2514272946</v>
+        <v>554729.2459973614</v>
       </c>
       <c r="R12" t="n">
-        <v>6697980.830233379</v>
+        <v>6698057.144588907</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -1987,6 +2016,7 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2005,10 +2035,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111469967</v>
+        <v>111469944</v>
       </c>
       <c r="B13" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2017,47 +2047,38 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554705.6319759471</v>
+        <v>554647.0313377964</v>
       </c>
       <c r="R13" t="n">
-        <v>6698113.601669285</v>
+        <v>6697996.127116338</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2108,7 +2129,6 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
@@ -2127,10 +2147,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111469949</v>
+        <v>111469926</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2139,25 +2159,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2167,10 +2187,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554654.1362404823</v>
+        <v>554745.7538377594</v>
       </c>
       <c r="R14" t="n">
-        <v>6697984.37715952</v>
+        <v>6698078.142900295</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2239,10 +2259,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111469964</v>
+        <v>111469950</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2251,47 +2271,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554731.9372321201</v>
+        <v>554648.2514272946</v>
       </c>
       <c r="R15" t="n">
-        <v>6698141.169601779</v>
+        <v>6697980.830233379</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2342,7 +2353,6 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
-      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2361,10 +2371,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111469929</v>
+        <v>111469964</v>
       </c>
       <c r="B16" t="n">
-        <v>56398</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2373,33 +2383,34 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100109</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N16" t="inlineStr"/>
@@ -2409,10 +2420,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554646.3468513897</v>
+        <v>554731.9372321201</v>
       </c>
       <c r="R16" t="n">
-        <v>6697975.861129273</v>
+        <v>6698141.169601779</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2463,6 +2474,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2481,10 +2493,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111469954</v>
+        <v>111469962</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2493,38 +2505,47 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554709.4759112563</v>
+        <v>554640.2091243146</v>
       </c>
       <c r="R17" t="n">
-        <v>6698022.75809369</v>
+        <v>6697989.107814683</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2575,6 +2596,7 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2593,10 +2615,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111469963</v>
+        <v>111469941</v>
       </c>
       <c r="B18" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2605,36 +2627,35 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2642,10 +2663,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554718.6790950731</v>
+        <v>554704.8063610581</v>
       </c>
       <c r="R18" t="n">
-        <v>6698003.135367867</v>
+        <v>6698102.720679003</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2715,10 +2736,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111469968</v>
+        <v>111469953</v>
       </c>
       <c r="B19" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2727,47 +2748,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>554679.218646974</v>
+        <v>554668.8331894471</v>
       </c>
       <c r="R19" t="n">
-        <v>6698060.342582431</v>
+        <v>6698027.085862564</v>
       </c>
       <c r="S19" t="n">
         <v>15</v>
@@ -2818,7 +2830,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2837,10 +2848,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111469962</v>
+        <v>111469952</v>
       </c>
       <c r="B20" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2849,47 +2860,38 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554640.2091243146</v>
+        <v>554701.1291447466</v>
       </c>
       <c r="R20" t="n">
-        <v>6697989.107814683</v>
+        <v>6697985.57934437</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2940,7 +2942,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2959,10 +2960,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111469958</v>
+        <v>111469963</v>
       </c>
       <c r="B21" t="n">
-        <v>89621</v>
+        <v>5113</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2971,38 +2972,47 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1101</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554681.1975678616</v>
+        <v>554718.6790950731</v>
       </c>
       <c r="R21" t="n">
-        <v>6698060.372405332</v>
+        <v>6698003.135367867</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3053,6 +3063,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3071,10 +3082,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111469941</v>
+        <v>111469922</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3083,35 +3094,36 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3119,10 +3131,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554704.8063610581</v>
+        <v>554716.6256586342</v>
       </c>
       <c r="R22" t="n">
-        <v>6698102.720679003</v>
+        <v>6698008.044787553</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3192,10 +3204,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111469926</v>
+        <v>111469968</v>
       </c>
       <c r="B23" t="n">
-        <v>89369</v>
+        <v>5113</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3208,34 +3220,43 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>100526</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554745.7538377594</v>
+        <v>554679.218646974</v>
       </c>
       <c r="R23" t="n">
-        <v>6698078.142900295</v>
+        <v>6698060.342582431</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3286,6 +3307,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3304,7 +3326,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111469952</v>
+        <v>111469946</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3344,10 +3366,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554701.1291447466</v>
+        <v>554664.6782300239</v>
       </c>
       <c r="R24" t="n">
-        <v>6697985.57934437</v>
+        <v>6698007.261790544</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3416,10 +3438,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111469953</v>
+        <v>111469958</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>89621</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3428,25 +3450,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>1101</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3456,10 +3478,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554668.8331894471</v>
+        <v>554681.1975678616</v>
       </c>
       <c r="R25" t="n">
-        <v>6698027.085862564</v>
+        <v>6698060.372405332</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3528,10 +3550,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111469966</v>
+        <v>111469951</v>
       </c>
       <c r="B26" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3540,47 +3562,38 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554729.2459973614</v>
+        <v>554679.0891228422</v>
       </c>
       <c r="R26" t="n">
-        <v>6698057.144588907</v>
+        <v>6697970.425878088</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3631,7 +3644,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3650,10 +3662,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111469965</v>
+        <v>111469954</v>
       </c>
       <c r="B27" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3662,47 +3674,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554716.1509068209</v>
+        <v>554709.4759112563</v>
       </c>
       <c r="R27" t="n">
-        <v>6698137.967376946</v>
+        <v>6698022.75809369</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3753,7 +3756,6 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3772,10 +3774,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111469922</v>
+        <v>111469949</v>
       </c>
       <c r="B28" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3784,47 +3786,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554716.6256586342</v>
+        <v>554654.1362404823</v>
       </c>
       <c r="R28" t="n">
-        <v>6698008.044787553</v>
+        <v>6697984.37715952</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3875,7 +3868,6 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3894,7 +3886,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111469951</v>
+        <v>111469947</v>
       </c>
       <c r="B29" t="n">
         <v>96348</v>
@@ -3934,10 +3926,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554679.0891228422</v>
+        <v>554660.8096201464</v>
       </c>
       <c r="R29" t="n">
-        <v>6697970.425878088</v>
+        <v>6698001.275046931</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -4006,10 +3998,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111469946</v>
+        <v>111469929</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4018,38 +4010,46 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554664.6782300239</v>
+        <v>554646.3468513897</v>
       </c>
       <c r="R30" t="n">
-        <v>6698007.261790544</v>
+        <v>6697975.861129273</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>

--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -2259,10 +2259,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111469950</v>
+        <v>111469964</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2271,38 +2271,47 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554648.2514272946</v>
+        <v>554731.9372321201</v>
       </c>
       <c r="R15" t="n">
-        <v>6697980.830233379</v>
+        <v>6698141.169601779</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2353,6 +2362,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2371,10 +2381,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111469964</v>
+        <v>111469950</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2383,47 +2393,38 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554731.9372321201</v>
+        <v>554648.2514272946</v>
       </c>
       <c r="R16" t="n">
-        <v>6698141.169601779</v>
+        <v>6697980.830233379</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2474,7 +2475,6 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
-      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -1669,10 +1669,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111469967</v>
+        <v>111469951</v>
       </c>
       <c r="B10" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1681,47 +1681,38 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554705.6319759471</v>
+        <v>554679.0891228422</v>
       </c>
       <c r="R10" t="n">
-        <v>6698113.601669285</v>
+        <v>6697970.425878088</v>
       </c>
       <c r="S10" t="n">
         <v>15</v>
@@ -1772,7 +1763,6 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
@@ -1791,10 +1781,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111469965</v>
+        <v>111469952</v>
       </c>
       <c r="B11" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1803,47 +1793,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554716.1509068209</v>
+        <v>554701.1291447466</v>
       </c>
       <c r="R11" t="n">
-        <v>6698137.967376946</v>
+        <v>6697985.57934437</v>
       </c>
       <c r="S11" t="n">
         <v>15</v>
@@ -1894,7 +1875,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1913,7 +1893,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111469966</v>
+        <v>111469968</v>
       </c>
       <c r="B12" t="n">
         <v>5113</v>
@@ -1962,10 +1942,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554729.2459973614</v>
+        <v>554679.218646974</v>
       </c>
       <c r="R12" t="n">
-        <v>6698057.144588907</v>
+        <v>6698060.342582431</v>
       </c>
       <c r="S12" t="n">
         <v>15</v>
@@ -2035,10 +2015,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111469944</v>
+        <v>111469958</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>89621</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2047,25 +2027,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>1101</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gropticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Postia guttulata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Peck) Jülich</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2075,10 +2055,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>554647.0313377964</v>
+        <v>554681.1975678616</v>
       </c>
       <c r="R13" t="n">
-        <v>6697996.127116338</v>
+        <v>6698060.372405332</v>
       </c>
       <c r="S13" t="n">
         <v>15</v>
@@ -2147,10 +2127,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111469926</v>
+        <v>111469954</v>
       </c>
       <c r="B14" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2159,25 +2139,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2187,10 +2167,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>554745.7538377594</v>
+        <v>554709.4759112563</v>
       </c>
       <c r="R14" t="n">
-        <v>6698078.142900295</v>
+        <v>6698022.75809369</v>
       </c>
       <c r="S14" t="n">
         <v>15</v>
@@ -2259,10 +2239,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111469964</v>
+        <v>111469922</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>5135</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2275,21 +2255,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2298,7 +2278,7 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N15" t="inlineStr"/>
@@ -2308,10 +2288,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554731.9372321201</v>
+        <v>554716.6256586342</v>
       </c>
       <c r="R15" t="n">
-        <v>6698141.169601779</v>
+        <v>6698008.044787553</v>
       </c>
       <c r="S15" t="n">
         <v>15</v>
@@ -2381,10 +2361,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111469950</v>
+        <v>111469965</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2393,38 +2373,47 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554648.2514272946</v>
+        <v>554716.1509068209</v>
       </c>
       <c r="R16" t="n">
-        <v>6697980.830233379</v>
+        <v>6698137.967376946</v>
       </c>
       <c r="S16" t="n">
         <v>15</v>
@@ -2475,6 +2464,7 @@
       <c r="AE16" t="b">
         <v>0</v>
       </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
       </c>
@@ -2493,7 +2483,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111469962</v>
+        <v>111469966</v>
       </c>
       <c r="B17" t="n">
         <v>5113</v>
@@ -2532,7 +2522,7 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -2542,10 +2532,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554640.2091243146</v>
+        <v>554729.2459973614</v>
       </c>
       <c r="R17" t="n">
-        <v>6697989.107814683</v>
+        <v>6698057.144588907</v>
       </c>
       <c r="S17" t="n">
         <v>15</v>
@@ -2615,10 +2605,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111469941</v>
+        <v>111469926</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2627,46 +2617,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554704.8063610581</v>
+        <v>554745.7538377594</v>
       </c>
       <c r="R18" t="n">
-        <v>6698102.720679003</v>
+        <v>6698078.142900295</v>
       </c>
       <c r="S18" t="n">
         <v>15</v>
@@ -2717,7 +2699,6 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
       </c>
@@ -2848,10 +2829,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111469952</v>
+        <v>111469963</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2860,38 +2841,47 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>554701.1291447466</v>
+        <v>554718.6790950731</v>
       </c>
       <c r="R20" t="n">
-        <v>6697985.57934437</v>
+        <v>6698003.135367867</v>
       </c>
       <c r="S20" t="n">
         <v>15</v>
@@ -2942,6 +2932,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2960,7 +2951,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111469963</v>
+        <v>111469964</v>
       </c>
       <c r="B21" t="n">
         <v>5113</v>
@@ -3009,10 +3000,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>554718.6790950731</v>
+        <v>554731.9372321201</v>
       </c>
       <c r="R21" t="n">
-        <v>6698003.135367867</v>
+        <v>6698141.169601779</v>
       </c>
       <c r="S21" t="n">
         <v>15</v>
@@ -3082,10 +3073,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111469922</v>
+        <v>111469962</v>
       </c>
       <c r="B22" t="n">
-        <v>5135</v>
+        <v>5113</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3098,21 +3089,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>105930</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3121,7 +3112,7 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="N22" t="inlineStr"/>
@@ -3131,10 +3122,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>554716.6256586342</v>
+        <v>554640.2091243146</v>
       </c>
       <c r="R22" t="n">
-        <v>6698008.044787553</v>
+        <v>6697989.107814683</v>
       </c>
       <c r="S22" t="n">
         <v>15</v>
@@ -3204,10 +3195,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111469968</v>
+        <v>111469949</v>
       </c>
       <c r="B23" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3216,47 +3207,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>554679.218646974</v>
+        <v>554654.1362404823</v>
       </c>
       <c r="R23" t="n">
-        <v>6698060.342582431</v>
+        <v>6697984.37715952</v>
       </c>
       <c r="S23" t="n">
         <v>15</v>
@@ -3307,7 +3289,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3326,7 +3307,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111469946</v>
+        <v>111469947</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3366,10 +3347,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>554664.6782300239</v>
+        <v>554660.8096201464</v>
       </c>
       <c r="R24" t="n">
-        <v>6698007.261790544</v>
+        <v>6698001.275046931</v>
       </c>
       <c r="S24" t="n">
         <v>15</v>
@@ -3438,10 +3419,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111469958</v>
+        <v>111469950</v>
       </c>
       <c r="B25" t="n">
-        <v>89621</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3450,25 +3431,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1101</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Gropticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Postia guttulata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Peck) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3478,10 +3459,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>554681.1975678616</v>
+        <v>554648.2514272946</v>
       </c>
       <c r="R25" t="n">
-        <v>6698060.372405332</v>
+        <v>6697980.830233379</v>
       </c>
       <c r="S25" t="n">
         <v>15</v>
@@ -3550,10 +3531,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111469951</v>
+        <v>111469967</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3562,38 +3543,47 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>554679.0891228422</v>
+        <v>554705.6319759471</v>
       </c>
       <c r="R26" t="n">
-        <v>6697970.425878088</v>
+        <v>6698113.601669285</v>
       </c>
       <c r="S26" t="n">
         <v>15</v>
@@ -3644,6 +3634,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3662,7 +3653,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111469954</v>
+        <v>111469941</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3696,16 +3687,24 @@
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>554709.4759112563</v>
+        <v>554704.8063610581</v>
       </c>
       <c r="R27" t="n">
-        <v>6698022.75809369</v>
+        <v>6698102.720679003</v>
       </c>
       <c r="S27" t="n">
         <v>15</v>
@@ -3756,6 +3755,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3774,7 +3774,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111469949</v>
+        <v>111469944</v>
       </c>
       <c r="B28" t="n">
         <v>96348</v>
@@ -3814,10 +3814,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>554654.1362404823</v>
+        <v>554647.0313377964</v>
       </c>
       <c r="R28" t="n">
-        <v>6697984.37715952</v>
+        <v>6697996.127116338</v>
       </c>
       <c r="S28" t="n">
         <v>15</v>
@@ -3886,10 +3886,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111469947</v>
+        <v>111469929</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3898,38 +3898,46 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>554660.8096201464</v>
+        <v>554646.3468513897</v>
       </c>
       <c r="R29" t="n">
-        <v>6698001.275046931</v>
+        <v>6697975.861129273</v>
       </c>
       <c r="S29" t="n">
         <v>15</v>
@@ -3998,10 +4006,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111469929</v>
+        <v>111469946</v>
       </c>
       <c r="B30" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4010,46 +4018,38 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>554646.3468513897</v>
+        <v>554664.6782300239</v>
       </c>
       <c r="R30" t="n">
-        <v>6697975.861129273</v>
+        <v>6698007.261790544</v>
       </c>
       <c r="S30" t="n">
         <v>15</v>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111469940</v>
+        <v>111469969</v>
       </c>
       <c r="B31" t="n">
-        <v>79444</v>
+        <v>76495</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4134,21 +4134,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1049</v>
+        <v>6487</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4158,10 +4158,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>554771.1915359092</v>
+        <v>554769.2275642991</v>
       </c>
       <c r="R31" t="n">
-        <v>6698130.399477887</v>
+        <v>6698129.381786803</v>
       </c>
       <c r="S31" t="n">
         <v>15</v>
@@ -4212,6 +4212,7 @@
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4230,10 +4231,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111469969</v>
+        <v>111469940</v>
       </c>
       <c r="B32" t="n">
-        <v>76495</v>
+        <v>79444</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4246,21 +4247,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6487</v>
+        <v>1049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4270,10 +4271,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>554769.2275642991</v>
+        <v>554771.1915359092</v>
       </c>
       <c r="R32" t="n">
-        <v>6698129.381786803</v>
+        <v>6698130.399477887</v>
       </c>
       <c r="S32" t="n">
         <v>15</v>
@@ -4324,7 +4325,6 @@
       <c r="AE32" t="b">
         <v>0</v>
       </c>
-      <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 62040-2021.xlsx
+++ b/artfynd/A 62040-2021.xlsx
@@ -1295,10 +1295,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>97314124</v>
+        <v>111469945</v>
       </c>
       <c r="B7" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1328,21 +1328,10 @@
           <t>(L.) R. Br.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>plantor/tuvor</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Hedemora, Dlr</t>
+          <t>Kyrkberget, Dlr</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1352,7 +1341,7 @@
         <v>6697992.999640726</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1376,22 +1365,22 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-11-26</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1406,12 +1395,12 @@
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t xml:space="preserve">FREDRIK  Månsson </t>
+          <t>Philipp Weiss</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
